--- a/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>TYME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2600</v>
       </c>
       <c r="M12" s="3">
         <v>2600</v>
       </c>
       <c r="N12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,13 +1005,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1002,20 +1022,20 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>2500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E17" s="3">
         <v>6500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6200</v>
       </c>
       <c r="F17" s="3">
         <v>6200</v>
       </c>
       <c r="G17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H17" s="3">
         <v>10000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="F18" s="3">
         <v>-6200</v>
       </c>
       <c r="G18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,17 +1254,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1244,22 +1278,25 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1319,11 +1359,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1331,8 +1371,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1343,8 +1383,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,17 +1854,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1808,69 +1878,75 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E41" s="3">
         <v>11500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>10500</v>
       </c>
       <c r="O41" s="3">
         <v>10500</v>
       </c>
       <c r="P41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,25 +2337,28 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1000</v>
       </c>
       <c r="I45" s="3">
         <v>1000</v>
@@ -2268,75 +2367,81 @@
         <v>1000</v>
       </c>
       <c r="K45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E46" s="3">
         <v>12200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,14 +2499,14 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2585,23 +2705,23 @@
         <v>1300</v>
       </c>
       <c r="G52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>1400</v>
       </c>
       <c r="I52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E54" s="3">
         <v>13700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,196 +2879,209 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,34 +3127,37 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E62" s="3">
         <v>6100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
         <v>11300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-102100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-95100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-89000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-85800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-74600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-66600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-59600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-33900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4188,8 +4409,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4200,8 +4421,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4212,8 +4433,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4341,11 +4571,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>7500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>TYME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2600</v>
       </c>
       <c r="N12" s="3">
         <v>2600</v>
       </c>
       <c r="O12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1025,20 +1045,20 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>6800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6200</v>
       </c>
       <c r="G17" s="3">
         <v>6200</v>
       </c>
       <c r="H17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-6200</v>
       </c>
       <c r="G18" s="3">
         <v>-6200</v>
       </c>
       <c r="H18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,20 +1288,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1281,22 +1315,25 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,11 +1402,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1374,8 +1414,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1386,8 +1426,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,20 +1924,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1881,72 +1951,78 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E41" s="3">
         <v>26700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>10500</v>
       </c>
       <c r="P41" s="3">
         <v>10500</v>
       </c>
       <c r="Q41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,28 +2436,31 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1000</v>
       </c>
       <c r="J45" s="3">
         <v>1000</v>
@@ -2370,78 +2469,84 @@
         <v>1000</v>
       </c>
       <c r="L45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E46" s="3">
         <v>28100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,26 +2595,29 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2708,23 +2828,23 @@
         <v>1300</v>
       </c>
       <c r="H52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I52" s="3">
         <v>1400</v>
       </c>
       <c r="J52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E54" s="3">
         <v>29500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,208 +3010,221 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,37 +3273,40 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
         <v>4900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-107800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-102100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-95100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-89000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-85800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-74600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-66600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-42000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E76" s="3">
         <v>19000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4412,8 +4633,8 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4424,8 +4645,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4436,8 +4657,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4574,11 +4804,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>20900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>15200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>7500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>TYME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,52 +945,55 @@
         <v>4700</v>
       </c>
       <c r="E12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F12" s="3">
         <v>3700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2600</v>
       </c>
       <c r="O12" s="3">
         <v>2600</v>
       </c>
       <c r="P12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1048,20 +1068,20 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>2500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6200</v>
       </c>
       <c r="H17" s="3">
         <v>6200</v>
       </c>
       <c r="I17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-6200</v>
       </c>
       <c r="H18" s="3">
         <v>-6200</v>
       </c>
       <c r="I18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,23 +1322,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1318,22 +1352,25 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,11 +1445,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1417,8 +1457,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1429,8 +1469,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,23 +1994,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1954,75 +2024,81 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E41" s="3">
         <v>21300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7500</v>
-      </c>
-      <c r="P41" s="3">
-        <v>10500</v>
       </c>
       <c r="Q41" s="3">
         <v>10500</v>
       </c>
       <c r="R41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="S41" s="3">
         <v>3000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,31 +2535,34 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1000</v>
       </c>
       <c r="K45" s="3">
         <v>1000</v>
@@ -2472,81 +2571,87 @@
         <v>1000</v>
       </c>
       <c r="M45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E46" s="3">
         <v>22600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,29 +2703,32 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2831,23 +2951,23 @@
         <v>1300</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J52" s="3">
         <v>1400</v>
       </c>
       <c r="K52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E54" s="3">
         <v>24000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,158 +3151,167 @@
         <v>4100</v>
       </c>
       <c r="E57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,52 +3319,55 @@
         <v>5700</v>
       </c>
       <c r="E60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,40 +3419,43 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
         <v>8100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-116600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-107800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-102100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-95100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-89000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-85800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-66600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-42000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-30800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E76" s="3">
         <v>15800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,52 +4768,55 @@
         <v>-6400</v>
       </c>
       <c r="E89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,25 +4836,26 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4648,8 +4869,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4660,8 +4881,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4807,11 +5037,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>7500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>TYME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4700</v>
+        <v>3500</v>
       </c>
       <c r="E12" s="3">
         <v>4700</v>
       </c>
       <c r="F12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G12" s="3">
         <v>3700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2600</v>
       </c>
       <c r="P12" s="3">
         <v>2600</v>
       </c>
       <c r="Q12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,11 +1078,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1071,20 +1090,20 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1204,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
         <v>7300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6200</v>
       </c>
       <c r="I17" s="3">
         <v>6200</v>
       </c>
       <c r="J17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1273,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-6200</v>
       </c>
       <c r="I18" s="3">
         <v>-6200</v>
       </c>
       <c r="J18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,26 +1355,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1355,22 +1388,25 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1414,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,11 +1487,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1460,8 +1499,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1472,8 +1511,8 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,26 +2063,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2027,78 +2096,84 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E41" s="3">
         <v>19400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7500</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>10500</v>
       </c>
       <c r="R41" s="3">
         <v>10500</v>
       </c>
       <c r="S41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="T41" s="3">
         <v>3000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,34 +2633,37 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1000</v>
       </c>
       <c r="L45" s="3">
         <v>1000</v>
@@ -2574,84 +2672,90 @@
         <v>1000</v>
       </c>
       <c r="N45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E46" s="3">
         <v>20800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,32 +2810,35 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3046,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
@@ -2954,23 +3073,23 @@
         <v>1300</v>
       </c>
       <c r="J52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1400</v>
       </c>
       <c r="L52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E54" s="3">
         <v>22100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,232 +3271,245 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4100</v>
+        <v>2900</v>
       </c>
       <c r="E57" s="3">
         <v>4100</v>
       </c>
       <c r="F57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="E60" s="3">
         <v>5700</v>
       </c>
       <c r="F60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G60" s="3">
         <v>5600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,43 +3564,46 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>7600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-129600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-123500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-107800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-102100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-95100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-89000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-85800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-66600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-59600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-52800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-33900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E76" s="3">
         <v>14500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6400</v>
+        <v>-5700</v>
       </c>
       <c r="E89" s="3">
         <v>-6400</v>
       </c>
       <c r="F89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-5700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4872,8 +5092,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4884,8 +5104,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5040,11 +5269,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>7500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>TYME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F12" s="3">
         <v>3500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,35 +1121,35 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1126,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1257,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>5300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>5600</v>
       </c>
       <c r="Q17" s="3">
         <v>5300</v>
       </c>
       <c r="R17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T17" s="3">
         <v>3200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>3000</v>
       </c>
       <c r="U17" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W17" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-7300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-8100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-6700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-5600</v>
       </c>
       <c r="Q18" s="3">
         <v>-5300</v>
       </c>
       <c r="R18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-3200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-3000</v>
       </c>
       <c r="U18" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,32 +1423,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1391,22 +1459,28 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-6800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-8800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-11200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-8000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-7000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-5200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-3000</v>
       </c>
       <c r="U21" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1490,23 +1570,23 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1514,76 +1594,88 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-3000</v>
       </c>
       <c r="U23" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-8800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-11200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-3000</v>
       </c>
       <c r="U26" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-11200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-3000</v>
       </c>
       <c r="U27" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,32 +2203,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2099,81 +2239,93 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-11200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-3000</v>
       </c>
       <c r="U33" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-11200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-3000</v>
       </c>
       <c r="U35" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,90 +2572,98 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>107500</v>
+      </c>
+      <c r="F41" s="3">
         <v>13500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>26700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>14300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>16700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>21100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>22400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>29000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>10800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>7500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>10500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>36200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,149 +2828,167 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F45" s="3">
         <v>1700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1300</v>
       </c>
       <c r="G45" s="3">
         <v>1400</v>
       </c>
       <c r="H45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1800</v>
       </c>
       <c r="L45" s="3">
         <v>1000</v>
       </c>
       <c r="M45" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="N45" s="3">
         <v>1000</v>
       </c>
       <c r="O45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>109700</v>
+      </c>
+      <c r="F46" s="3">
         <v>15200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>20800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>22600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>28100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>12200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>16000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>20500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>17800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>22100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>23500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>29700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>12600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>11800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>28300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2813,8 +3023,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2822,29 +3038,29 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -2872,8 +3088,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,19 +3283,25 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
-        <v>1300</v>
-      </c>
       <c r="F52" s="3">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
@@ -3076,26 +3316,26 @@
         <v>1300</v>
       </c>
       <c r="K52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>110300</v>
+      </c>
+      <c r="F54" s="3">
         <v>15800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>22100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>24000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>29500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>17600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>19200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>24000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>25100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>31000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,46 +3532,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2600</v>
       </c>
       <c r="P57" s="3">
         <v>2500</v>
@@ -3320,137 +3582,155 @@
         <v>2600</v>
       </c>
       <c r="R57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T57" s="3">
         <v>3100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
       <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,58 +3738,64 @@
         <v>4600</v>
       </c>
       <c r="E60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3576,40 +3868,40 @@
         <v>2000</v>
       </c>
       <c r="E62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>6100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +4113,14 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3812,58 +4128,64 @@
         <v>6600</v>
       </c>
       <c r="E66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-136800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-129600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-123500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-116600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-107800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-102100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-95100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-89000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-85800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-74600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-66600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-59600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-52800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-47500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-42000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-36700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-33900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-30800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-27800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>101800</v>
+      </c>
+      <c r="F76" s="3">
         <v>9200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>15800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>19000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>7300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>20800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>22100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>26500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-11200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-3000</v>
       </c>
       <c r="U81" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-5600</v>
       </c>
       <c r="K89" s="3">
         <v>-4000</v>
       </c>
       <c r="L89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N89" s="3">
         <v>-5200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-6300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5095,11 +5537,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5107,17 +5549,23 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,19 +5688,25 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-65300</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5272,14 +5732,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>99100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>20900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>21800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>5800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>9000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>15200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>18200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3000</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>7500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>TYME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="3">
         <v>4200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4700</v>
       </c>
       <c r="H12" s="3">
         <v>4700</v>
       </c>
       <c r="I12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>2600</v>
       </c>
       <c r="S12" s="3">
         <v>2600</v>
       </c>
       <c r="T12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,11 +1147,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1139,20 +1159,20 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>6200</v>
       </c>
       <c r="L17" s="3">
         <v>6200</v>
       </c>
       <c r="M17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-6200</v>
       </c>
       <c r="L18" s="3">
         <v>-6200</v>
       </c>
       <c r="M18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,35 +1457,35 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1465,22 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1576,11 +1616,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1588,8 +1628,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1600,8 +1640,8 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,35 +2273,35 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2245,87 +2315,93 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,82 +2660,86 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E41" s="3">
         <v>36500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>26700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7500</v>
-      </c>
-      <c r="T41" s="3">
-        <v>10500</v>
       </c>
       <c r="U41" s="3">
         <v>10500</v>
       </c>
       <c r="V41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="W41" s="3">
         <v>3000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E42" s="3">
         <v>36200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2665,8 +2755,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,43 +2930,46 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
         <v>2100</v>
       </c>
       <c r="F45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1000</v>
       </c>
       <c r="O45" s="3">
         <v>1000</v>
@@ -2879,102 +2978,108 @@
         <v>1000</v>
       </c>
       <c r="Q45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E46" s="3">
         <v>74700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>109700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E47" s="3">
         <v>28300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2990,8 +3095,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3044,26 +3152,26 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3298,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
       </c>
       <c r="G52" s="3">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
@@ -3322,23 +3442,23 @@
         <v>1300</v>
       </c>
       <c r="M52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="N52" s="3">
         <v>1400</v>
       </c>
       <c r="O52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E54" s="3">
         <v>103100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,268 +3664,281 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4100</v>
       </c>
       <c r="H57" s="3">
         <v>4100</v>
       </c>
       <c r="I57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
-      </c>
-      <c r="V59" s="3">
-        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>5700</v>
       </c>
       <c r="H60" s="3">
         <v>5700</v>
       </c>
       <c r="I60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J60" s="3">
         <v>5600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,52 +4002,55 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-142700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-136800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-129600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-123500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-116600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-107800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-102100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-95100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-89000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-85800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-74600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-66600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-59600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-52800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-47500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-42000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-33900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-30800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-27800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E76" s="3">
         <v>96500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>101800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-6400</v>
       </c>
       <c r="H89" s="3">
         <v>-6400</v>
       </c>
       <c r="I89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-5700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5543,8 +5764,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -5555,8 +5776,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,22 +5921,25 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65300</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5738,11 +5968,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,64 +6299,67 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>99100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>20900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>2800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>9000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-71100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>94000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3000</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>7500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>TYME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,67 +1013,70 @@
         <v>3500</v>
       </c>
       <c r="E12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F12" s="3">
         <v>4200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4700</v>
       </c>
       <c r="I12" s="3">
         <v>4700</v>
       </c>
       <c r="J12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>2600</v>
       </c>
       <c r="T12" s="3">
         <v>2600</v>
       </c>
       <c r="U12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V12" s="3">
         <v>1300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,11 +1169,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1162,20 +1181,20 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,67 +1321,70 @@
         <v>5900</v>
       </c>
       <c r="E17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F17" s="3">
         <v>6700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>6200</v>
       </c>
       <c r="M17" s="3">
         <v>6200</v>
       </c>
       <c r="N17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O17" s="3">
         <v>10000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1392,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-6200</v>
       </c>
       <c r="M18" s="3">
         <v>-6200</v>
       </c>
       <c r="N18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,38 +1490,38 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1502,22 +1535,25 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1561,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1619,11 +1658,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1631,8 +1670,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1643,8 +1682,8 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,38 +2342,38 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2318,90 +2387,96 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,88 +2746,92 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E41" s="3">
         <v>29200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7500</v>
-      </c>
-      <c r="U41" s="3">
-        <v>10500</v>
       </c>
       <c r="V41" s="3">
         <v>10500</v>
       </c>
       <c r="W41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="X41" s="3">
         <v>3000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E42" s="3">
         <v>46300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2758,8 +2847,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,46 +3028,49 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2100</v>
       </c>
       <c r="F45" s="3">
         <v>2100</v>
       </c>
       <c r="G45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1000</v>
       </c>
       <c r="P45" s="3">
         <v>1000</v>
@@ -2981,108 +3079,114 @@
         <v>1000</v>
       </c>
       <c r="R45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E46" s="3">
         <v>77400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>74700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>109700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E47" s="3">
         <v>20400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>28300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3098,8 +3202,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3137,13 +3241,16 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3155,26 +3262,26 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>1300</v>
@@ -3445,23 +3564,23 @@
         <v>1300</v>
       </c>
       <c r="N52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="O52" s="3">
         <v>1400</v>
       </c>
       <c r="P52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E54" s="3">
         <v>97800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4100</v>
       </c>
       <c r="I57" s="3">
         <v>4100</v>
       </c>
       <c r="J57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3744,201 +3877,210 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
-      </c>
-      <c r="W59" s="3">
-        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>5700</v>
       </c>
       <c r="I60" s="3">
         <v>5700</v>
       </c>
       <c r="J60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K60" s="3">
         <v>5600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,55 +4147,58 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,67 +4443,70 @@
         <v>6300</v>
       </c>
       <c r="E66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-148300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-142700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-136800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-129600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-123500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-116600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-107800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-102100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-95100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-89000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-85800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-74600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-66600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-59600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-52800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-47500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-42000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-36700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-33900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-30800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-27800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E76" s="3">
         <v>91500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>96500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>101800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-6400</v>
       </c>
       <c r="I89" s="3">
         <v>-6400</v>
       </c>
       <c r="J89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5767,8 +5987,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -5779,8 +5999,8 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,25 +6150,28 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5971,11 +6200,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,64 +6547,67 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>99100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>9000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-71100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>94000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3000</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>7500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>TYME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F12" s="3">
         <v>3500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>3700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>2400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>2600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>2600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,16 +1180,22 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>2400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1172,35 +1212,35 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1364,87 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>5300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>5600</v>
       </c>
       <c r="U17" s="3">
         <v>5300</v>
       </c>
       <c r="V17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="W17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="X17" s="3">
         <v>3200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>3100</v>
-      </c>
-      <c r="X17" s="3">
-        <v>3000</v>
       </c>
       <c r="Y17" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-6200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-6700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-5600</v>
       </c>
       <c r="U18" s="3">
         <v>-5300</v>
       </c>
       <c r="V18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-3200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-3000</v>
       </c>
       <c r="Y18" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,44 +1558,44 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>600</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1538,22 +1606,28 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1635,76 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-8800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-11200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-7000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-6700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-5300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-5600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-5200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-3000</v>
       </c>
       <c r="Y21" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1661,23 +1741,23 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1685,88 +1765,100 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-11200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-5200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-3000</v>
       </c>
       <c r="Y23" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-11200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-5300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-5600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2900</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-3000</v>
       </c>
       <c r="Y26" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-11200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-5600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2900</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-3000</v>
       </c>
       <c r="Y27" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,44 +2482,44 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2390,93 +2530,105 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-11200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-6700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-5600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2900</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-3000</v>
       </c>
       <c r="Y33" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-11200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-6700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-5600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2900</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-3000</v>
       </c>
       <c r="Y35" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,97 +2919,105 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F41" s="3">
         <v>20800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>29200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>36500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>107500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>19400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>21300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>26700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>19500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>14300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>16700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>21100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>22400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>29000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>10800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>7500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>10500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>10500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>60600</v>
+      </c>
+      <c r="F42" s="3">
         <v>54300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>46300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>36200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2850,11 +3030,11 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,168 +3223,186 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1300</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
       </c>
       <c r="L45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1800</v>
       </c>
       <c r="P45" s="3">
         <v>1000</v>
       </c>
       <c r="Q45" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="R45" s="3">
         <v>1000</v>
       </c>
       <c r="S45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F46" s="3">
         <v>76500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>77400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>74700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>109700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>15200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>20800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>22600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>28100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>12200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>16000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>20500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>16100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>17800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>22100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>23500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>29700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>12600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>11800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>10700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F47" s="3">
         <v>16400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>20400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>28300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3205,11 +3415,11 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3253,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3265,29 +3481,29 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,13 +3762,19 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3543,16 +3783,16 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1300</v>
@@ -3567,26 +3807,26 @@
         <v>1300</v>
       </c>
       <c r="O52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>88000</v>
+      </c>
+      <c r="F54" s="3">
         <v>93000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>97800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>103100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>110300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>22100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>24000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>17600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>22100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>19200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>24000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>25100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>31000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>11800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,58 +4055,60 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2600</v>
       </c>
       <c r="T57" s="3">
         <v>2500</v>
@@ -3855,19 +4117,25 @@
         <v>2600</v>
       </c>
       <c r="V57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X57" s="3">
         <v>3100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3880,207 +4148,225 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
-      </c>
-      <c r="V59" s="3">
-        <v>100</v>
-      </c>
-      <c r="W59" s="3">
-        <v>400</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
       <c r="Y59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>5600</v>
       </c>
       <c r="H60" s="3">
         <v>4600</v>
       </c>
       <c r="I60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,61 +4436,67 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2800</v>
       </c>
       <c r="H62" s="3">
         <v>2000</v>
       </c>
       <c r="I62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>8500</v>
       </c>
       <c r="H66" s="3">
         <v>6600</v>
       </c>
       <c r="I66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-166900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-160400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-153600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-148300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-142700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-136800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-129600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-123500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-116600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-107800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-102100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-95100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-89000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-85800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-74600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-66600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-59600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-52800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-47500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-42000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-36700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-33900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-30800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-27800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>80100</v>
+      </c>
+      <c r="F76" s="3">
         <v>86700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>91500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>96500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>101800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>19000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>12000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>15700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>20800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>22100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>26500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>8900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>8600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>7400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-11200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-6700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-5600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2900</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-3000</v>
       </c>
       <c r="Y81" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,13 +5812,15 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-5600</v>
       </c>
       <c r="O89" s="3">
         <v>-4000</v>
       </c>
       <c r="P89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="R89" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-6300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-3000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5990,11 +6432,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -6002,17 +6444,23 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,31 +6607,37 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-65300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6203,14 +6663,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6550,64 +7042,70 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>99100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>20900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>10800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>21800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>5800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>2800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>9000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-71100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>94000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>15200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>18200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-3000</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>7500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1100</v>
       </c>
     </row>
